--- a/app/vendors/PHPExcel/Tests/08conditionalformatting.xlsx
+++ b/app/vendors/PHPExcel/Tests/08conditionalformatting.xlsx
@@ -42,19 +42,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <u val="none"/>
       <color rgb="FF000000"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <b val="true"/>
       <u val="none"/>
       <color rgb="FF000000"/>
@@ -77,23 +75,14 @@
   <borders count="1">
     <border outline="true"/>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+  <cellXfs count="2">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="1" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -104,7 +93,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <b val="true"/>
         <u val="none"/>
         <color rgb="FFFFFF00"/>
@@ -122,7 +111,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <b val="true"/>
         <u val="none"/>
         <color rgb="FFFF0000"/>
@@ -140,7 +129,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <b val="true"/>
         <u val="none"/>
         <color rgb="FF00FF00"/>
@@ -451,20 +440,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.00" customWidth="true"/>
-    <col min="2" max="2" width="12.00" customWidth="true"/>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -472,7 +461,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>100</v>
       </c>
     </row>
@@ -480,7 +469,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>-1.5</v>
       </c>
     </row>
@@ -488,7 +477,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>-1.5</v>
       </c>
     </row>
@@ -496,7 +485,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>-1.2</v>
       </c>
     </row>
@@ -504,15 +493,15 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <f>SUM(B2:B6)</f>
         <v>103.8</v>
       </c>
@@ -535,88 +524,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>200</formula>
-      <formula>400</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
-      <formula>200</formula>
-      <formula>400</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
-      <formula>200</formula>
-      <formula>400</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
-      <formula>200</formula>
-      <formula>400</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
-      <formula>200</formula>
-      <formula>400</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" fitToHeight="0" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;L&amp;BPersonal cash register&amp;RPrinted on &amp;D</oddHeader>
